--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS8.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS8.xlsx
@@ -19,7 +19,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="129">
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
   <si>
     <t>Signal_Value_43</t>
   </si>
@@ -279,10 +402,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -643,15 +763,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:CZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:104">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -839,10 +959,133 @@
       <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:104">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -851,100 +1094,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003565803780885313</v>
+        <v>0.02869598532360012</v>
       </c>
       <c r="E2">
-        <v>0.01002330093482475</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0671397007129617</v>
       </c>
       <c r="G2">
-        <v>0.05167939830611051</v>
+        <v>0.008275658021841005</v>
       </c>
       <c r="H2">
-        <v>0.0005374711872820891</v>
+        <v>0.01296911485026536</v>
       </c>
       <c r="I2">
-        <v>0.08202518965513668</v>
+        <v>0.03410681197958821</v>
       </c>
       <c r="J2">
-        <v>0.004242434448769165</v>
+        <v>0.07248947405295172</v>
       </c>
       <c r="K2">
-        <v>0.01651064797257231</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03797905688788163</v>
+        <v>0.03191657465974138</v>
       </c>
       <c r="M2">
-        <v>0.03602207294771128</v>
+        <v>0.01332044872745997</v>
       </c>
       <c r="N2">
-        <v>0.008170645831500473</v>
+        <v>0.1988064637101829</v>
       </c>
       <c r="O2">
-        <v>0.000857961323543849</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.02378846670983379</v>
+        <v>0.005246482837696222</v>
       </c>
       <c r="Q2">
-        <v>0.03520850574214882</v>
+        <v>0.0320791573140936</v>
       </c>
       <c r="R2">
-        <v>0.01918039415876803</v>
+        <v>0.02247394556406496</v>
       </c>
       <c r="S2">
-        <v>0.008519259923340933</v>
+        <v>0.009471338000926323</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.09954248497148E-05</v>
       </c>
       <c r="U2">
-        <v>0.0008080542294259741</v>
+        <v>0.03876944192885173</v>
       </c>
       <c r="V2">
-        <v>0.002516518148260062</v>
+        <v>0.03040662497131322</v>
       </c>
       <c r="W2">
-        <v>0.05848286356848417</v>
+        <v>0.04668284358193237</v>
       </c>
       <c r="X2">
-        <v>0.1160926025168022</v>
+        <v>0.1010592860122978</v>
       </c>
       <c r="Y2">
-        <v>0.01550267442406156</v>
+        <v>0.004455637949667589</v>
       </c>
       <c r="Z2">
-        <v>0.01037799989383058</v>
+        <v>0.04822476344378723</v>
       </c>
       <c r="AA2">
-        <v>0.01243338958964928</v>
+        <v>0.01185029449331637</v>
       </c>
       <c r="AB2">
-        <v>0.008353547477367482</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.04063209699541435</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.02596644021677341</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002995204866446134</v>
+        <v>0.02209221898910615</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.09705297357617179</v>
       </c>
       <c r="AG2">
-        <v>0.06565455965766391</v>
+        <v>0.04662408136153937</v>
       </c>
       <c r="AH2">
-        <v>0.1941361775786126</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.1104329454067001</v>
+        <v>0.01576968251179335</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1030,10 +1273,133 @@
       <c r="BK2">
         <v>0</v>
       </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:104">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1078,100 +1444,100 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.003354290820390023</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.02240053919139673</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01951324350467671</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.004944099174809794</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.004423812675514115</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01630998080463455</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>6.856991708985692E-07</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001298457207386048</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01088355590726666</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.04052620126928193</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.006753844994081306</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.02625078864504744</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02136216392355911</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.05057742730382724</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.02339151321001364</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.116151620147382</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0647595554229311</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.007021003988705044</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.009321399559056556</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.08531402636821128</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.1220682388107313</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.02640512557559887</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.01803790339229217</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.009888129347462546</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.001206171277982704</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.04784405431226874</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.07224610990558104</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.02520410388052204</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.006985865085534652</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.01595173894966911</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.05415608185631654</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.06661687927534561</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -1221,10 +1587,133 @@
       <c r="BK3">
         <v>0</v>
       </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0.05013781999227133</v>
+      </c>
+      <c r="BT3">
+        <v>0.01156434579455205</v>
+      </c>
+      <c r="BU3">
+        <v>0.03837218624221798</v>
+      </c>
+      <c r="BV3">
+        <v>0.002269789240187214</v>
+      </c>
+      <c r="BW3">
+        <v>0.002644705272543522</v>
+      </c>
+      <c r="BX3">
+        <v>0.03041212595635067</v>
+      </c>
+      <c r="BY3">
+        <v>0.03816982526105319</v>
+      </c>
+      <c r="BZ3">
+        <v>2.153674404717401E-05</v>
+      </c>
+      <c r="CA3">
+        <v>0.02871940645164691</v>
+      </c>
+      <c r="CB3">
+        <v>0.005978139593827523</v>
+      </c>
+      <c r="CC3">
+        <v>0.1661128560785542</v>
+      </c>
+      <c r="CD3">
+        <v>4.956147120637654E-05</v>
+      </c>
+      <c r="CE3">
+        <v>1.806943220182771E-05</v>
+      </c>
+      <c r="CF3">
+        <v>0.01393077040224908</v>
+      </c>
+      <c r="CG3">
+        <v>0.04052943071608148</v>
+      </c>
+      <c r="CH3">
+        <v>0.005960334870838923</v>
+      </c>
+      <c r="CI3">
+        <v>0.009205667680332165</v>
+      </c>
+      <c r="CJ3">
+        <v>0.04671661606119816</v>
+      </c>
+      <c r="CK3">
+        <v>0.01277126028440484</v>
+      </c>
+      <c r="CL3">
+        <v>0.01071707661968918</v>
+      </c>
+      <c r="CM3">
+        <v>0.126289536528676</v>
+      </c>
+      <c r="CN3">
+        <v>0.03670638829023402</v>
+      </c>
+      <c r="CO3">
+        <v>0.05127537275278158</v>
+      </c>
+      <c r="CP3">
+        <v>0.04709640402349183</v>
+      </c>
+      <c r="CQ3">
+        <v>7.972270172100473E-05</v>
+      </c>
+      <c r="CR3">
+        <v>0.02442449255469436</v>
+      </c>
+      <c r="CS3">
+        <v>0.0222023673041758</v>
+      </c>
+      <c r="CT3">
+        <v>0.0318547749454926</v>
+      </c>
+      <c r="CU3">
+        <v>0.06983275795982266</v>
+      </c>
+      <c r="CV3">
+        <v>0.0317795732295192</v>
+      </c>
+      <c r="CW3">
+        <v>0.003666143330730691</v>
+      </c>
+      <c r="CX3">
+        <v>0.04049094221320683</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:104">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1317,105 +1806,228 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.008554129802150366</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0194335154741914</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0003560240413158984</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.009111802527774892</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01045443591966185</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0005760540984615242</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.02395140819206794</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002120651717548863</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001369888728735364</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0004494327131473843</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0002103515860288594</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0003016783122752589</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.005949732896472167</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.01162872593731414</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.09366120630239662</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.05481660505082313</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.00237881234896149</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.005379025760681921</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.04428440364844411</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.1117121893220396</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.08821404960084217</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0564054158826523</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.03201528448874443</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003404554605620613</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.03295133670650736</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.07485178492513721</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.05828962100826957</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.05527252903179355</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.05087835666805602</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.05672625095715303</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.06350152741158295</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0207892143331483</v>
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0.04373445717948465</v>
+      </c>
+      <c r="BS4">
+        <v>0.0014025684722799</v>
+      </c>
+      <c r="BT4">
+        <v>0.04632033792694721</v>
+      </c>
+      <c r="BU4">
+        <v>0.005021287822442167</v>
+      </c>
+      <c r="BV4">
+        <v>0.0003124714573561346</v>
+      </c>
+      <c r="BW4">
+        <v>2.488367794021712E-05</v>
+      </c>
+      <c r="BX4">
+        <v>0.05237205590492808</v>
+      </c>
+      <c r="BY4">
+        <v>0.01342109823887505</v>
+      </c>
+      <c r="BZ4">
+        <v>0.008068374112006867</v>
+      </c>
+      <c r="CA4">
+        <v>0.006429221509554927</v>
+      </c>
+      <c r="CB4">
+        <v>0.03780904124823973</v>
+      </c>
+      <c r="CC4">
+        <v>0.06702523853281553</v>
+      </c>
+      <c r="CD4">
+        <v>0.006975554992708754</v>
+      </c>
+      <c r="CE4">
+        <v>0.01256049682137826</v>
+      </c>
+      <c r="CF4">
+        <v>0.009657119483244443</v>
+      </c>
+      <c r="CG4">
+        <v>0.02289008952704232</v>
+      </c>
+      <c r="CH4">
+        <v>0.0005817737118287275</v>
+      </c>
+      <c r="CI4">
+        <v>0.02329637868613752</v>
+      </c>
+      <c r="CJ4">
+        <v>0.05785050660880589</v>
+      </c>
+      <c r="CK4">
+        <v>0.02895310750087918</v>
+      </c>
+      <c r="CL4">
+        <v>0.00454572958329718</v>
+      </c>
+      <c r="CM4">
+        <v>0.1520115658249379</v>
+      </c>
+      <c r="CN4">
+        <v>0.004057562229992127</v>
+      </c>
+      <c r="CO4">
+        <v>0.04947413197100686</v>
+      </c>
+      <c r="CP4">
+        <v>0.0264131558660226</v>
+      </c>
+      <c r="CQ4">
+        <v>0.0009722237747461427</v>
+      </c>
+      <c r="CR4">
+        <v>0.0832505562460709</v>
+      </c>
+      <c r="CS4">
+        <v>0.05318041009455159</v>
+      </c>
+      <c r="CT4">
+        <v>0.09242193176549886</v>
+      </c>
+      <c r="CU4">
+        <v>0.05193012227150298</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0.03703654695747716</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:104">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1505,108 +2117,231 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.004903089403684301</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.00541044047910753</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01170967767632199</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.06813475742590394</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.002175918284244242</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.04374655910298599</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.04575151275733141</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001315525182700196</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.03373368533893778</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.02262245958323708</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.02211500929160798</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.000874791727900939</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.02284066089549897</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.002112328244713054</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001217781150886506</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01807785040775178</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.09299797549370904</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0566944140738354</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001315525182700196</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.06452906894884407</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.1085496068176347</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.09648222848143438</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.03357525964627579</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.007046506564439023</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0004093090621744254</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.004744952210018668</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.05265675482006482</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.08084616902704159</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.04223322031914511</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01238690519545349</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.009810435029344677</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.02897962217507091</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
       </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0.01178454433430599</v>
+      </c>
+      <c r="BU5">
+        <v>0.0118836554849729</v>
+      </c>
+      <c r="BV5">
+        <v>0.04429205208922423</v>
+      </c>
+      <c r="BW5">
+        <v>0.01952112459948933</v>
+      </c>
+      <c r="BX5">
+        <v>0.001389928724276096</v>
+      </c>
+      <c r="BY5">
+        <v>4.919666533551208E-05</v>
+      </c>
+      <c r="BZ5">
+        <v>0.05593193576285989</v>
+      </c>
+      <c r="CA5">
+        <v>0.01139559578293672</v>
+      </c>
+      <c r="CB5">
+        <v>0.02397226389925247</v>
+      </c>
+      <c r="CC5">
+        <v>0.03055335414417118</v>
+      </c>
+      <c r="CD5">
+        <v>0.04528168189148499</v>
+      </c>
+      <c r="CE5">
+        <v>0.1125763024940252</v>
+      </c>
+      <c r="CF5">
+        <v>0.0001664019554515369</v>
+      </c>
+      <c r="CG5">
+        <v>0.006078093045955951</v>
+      </c>
+      <c r="CH5">
+        <v>0.03529679339159646</v>
+      </c>
+      <c r="CI5">
+        <v>0.03980781385853344</v>
+      </c>
+      <c r="CJ5">
+        <v>0.0008343797605984322</v>
+      </c>
+      <c r="CK5">
+        <v>0.010826010873675</v>
+      </c>
+      <c r="CL5">
+        <v>0.04878380467798601</v>
+      </c>
+      <c r="CM5">
+        <v>0.03967410719827776</v>
+      </c>
+      <c r="CN5">
+        <v>0.03122086198013991</v>
+      </c>
+      <c r="CO5">
+        <v>0.1043886956975852</v>
+      </c>
+      <c r="CP5">
+        <v>8.44865565303511E-05</v>
+      </c>
+      <c r="CQ5">
+        <v>0.0506194247678927</v>
+      </c>
+      <c r="CR5">
+        <v>0.01740982653936648</v>
+      </c>
+      <c r="CS5">
+        <v>0.002257913626669257</v>
+      </c>
+      <c r="CT5">
+        <v>0.01767183936195699</v>
+      </c>
+      <c r="CU5">
+        <v>0.02601855775630306</v>
+      </c>
+      <c r="CV5">
+        <v>0.0985064064280706</v>
+      </c>
+      <c r="CW5">
+        <v>0.07176317790971036</v>
+      </c>
+      <c r="CX5">
+        <v>0.004911183890230643</v>
+      </c>
+      <c r="CY5">
+        <v>0.02504858485113551</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:104">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1648,100 +2383,100 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004640563539574882</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.004443028531483957</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01680851834359681</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.05834268124566172</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002979544708376592</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02636582568179722</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.02397618859248026</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.000705997316367067</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.006411422151770368</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.04025162409887369</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.03937394271964077</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0007813029980635621</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0363240865563841</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3.729612269589891E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.006326979515157618</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.03115476246405444</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.06937870232804184</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03464379317177872</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.114879535446178E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02483644812085944</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.1048029661094797</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.1240257144534659</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.04328967254515305</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0113633626057545</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0007394741318908461</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.003633325372324568</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.06104378188664052</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.07715763548248354</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.04264758524330232</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.03378919190751493</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.03308367794006152</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0366197553199151</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1793,6 +2528,129 @@
       </c>
       <c r="BK6">
         <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0.04600217361366905</v>
+      </c>
+      <c r="BV6">
+        <v>0.02915061540475343</v>
+      </c>
+      <c r="BW6">
+        <v>0.01450035088099549</v>
+      </c>
+      <c r="BX6">
+        <v>0.008273325388669902</v>
+      </c>
+      <c r="BY6">
+        <v>0.003997717914956341</v>
+      </c>
+      <c r="BZ6">
+        <v>0.04188467862925575</v>
+      </c>
+      <c r="CA6">
+        <v>0.040803950078536</v>
+      </c>
+      <c r="CB6">
+        <v>0.0003143071298449635</v>
+      </c>
+      <c r="CC6">
+        <v>0.02193872794881514</v>
+      </c>
+      <c r="CD6">
+        <v>0.01322982753723716</v>
+      </c>
+      <c r="CE6">
+        <v>0.1136256862354285</v>
+      </c>
+      <c r="CF6">
+        <v>0.0127908683204574</v>
+      </c>
+      <c r="CG6">
+        <v>0.001720040553346326</v>
+      </c>
+      <c r="CH6">
+        <v>0.06149262828421014</v>
+      </c>
+      <c r="CI6">
+        <v>0.01817285128532636</v>
+      </c>
+      <c r="CJ6">
+        <v>0.0008490175698694367</v>
+      </c>
+      <c r="CK6">
+        <v>0.002212776265665046</v>
+      </c>
+      <c r="CL6">
+        <v>0.04771359427591598</v>
+      </c>
+      <c r="CM6">
+        <v>0.04000663711339343</v>
+      </c>
+      <c r="CN6">
+        <v>0.02425311762388468</v>
+      </c>
+      <c r="CO6">
+        <v>0.08024211206617386</v>
+      </c>
+      <c r="CP6">
+        <v>0.008173783255250717</v>
+      </c>
+      <c r="CQ6">
+        <v>0.02565029472658163</v>
+      </c>
+      <c r="CR6">
+        <v>0.03265442941693539</v>
+      </c>
+      <c r="CS6">
+        <v>0.00022271015145845</v>
+      </c>
+      <c r="CT6">
+        <v>0.04467610681808274</v>
+      </c>
+      <c r="CU6">
+        <v>0.02299103473402831</v>
+      </c>
+      <c r="CV6">
+        <v>0.1254045377975294</v>
+      </c>
+      <c r="CW6">
+        <v>0.07353846278870449</v>
+      </c>
+      <c r="CX6">
+        <v>0.0009183311295386353</v>
+      </c>
+      <c r="CY6">
+        <v>0.01733943010198799</v>
+      </c>
+      <c r="CZ6">
+        <v>0.02525587495949786</v>
       </c>
     </row>
   </sheetData>
@@ -1802,15 +2660,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:CZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:104">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1998,10 +2856,133 @@
       <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:104">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2010,97 +2991,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003565803780885313</v>
+        <v>0.02869598532360012</v>
       </c>
       <c r="E2">
-        <v>0.01358910471571007</v>
+        <v>0.02869598532360012</v>
       </c>
       <c r="F2">
-        <v>0.01358910471571007</v>
+        <v>0.09583568603656181</v>
       </c>
       <c r="G2">
-        <v>0.06526850302182058</v>
+        <v>0.1041113440584028</v>
       </c>
       <c r="H2">
-        <v>0.06580597420910267</v>
+        <v>0.1170804589086682</v>
       </c>
       <c r="I2">
-        <v>0.1478311638642393</v>
+        <v>0.1511872708882564</v>
       </c>
       <c r="J2">
-        <v>0.1520735983130085</v>
+        <v>0.2236767449412081</v>
       </c>
       <c r="K2">
-        <v>0.1685842462855808</v>
+        <v>0.2236767449412081</v>
       </c>
       <c r="L2">
-        <v>0.2065633031734624</v>
+        <v>0.2555933196009495</v>
       </c>
       <c r="M2">
-        <v>0.2425853761211737</v>
+        <v>0.2689137683284095</v>
       </c>
       <c r="N2">
-        <v>0.2507560219526742</v>
+        <v>0.4677202320385924</v>
       </c>
       <c r="O2">
-        <v>0.2516139832762181</v>
+        <v>0.4677202320385924</v>
       </c>
       <c r="P2">
-        <v>0.2754024499860519</v>
+        <v>0.4729667148762886</v>
       </c>
       <c r="Q2">
-        <v>0.3106109557282007</v>
+        <v>0.5050458721903822</v>
       </c>
       <c r="R2">
-        <v>0.3297913498869688</v>
+        <v>0.5275198177544471</v>
       </c>
       <c r="S2">
-        <v>0.3383106098103097</v>
+        <v>0.5369911557553735</v>
       </c>
       <c r="T2">
-        <v>0.3383106098103097</v>
+        <v>0.5370121511802232</v>
       </c>
       <c r="U2">
-        <v>0.3391186640397357</v>
+        <v>0.5757815931090748</v>
       </c>
       <c r="V2">
-        <v>0.3416351821879957</v>
+        <v>0.606188218080388</v>
       </c>
       <c r="W2">
-        <v>0.4001180457564799</v>
+        <v>0.6528710616623205</v>
       </c>
       <c r="X2">
-        <v>0.5162106482732821</v>
+        <v>0.7539303476746182</v>
       </c>
       <c r="Y2">
-        <v>0.5317133226973437</v>
+        <v>0.7583859856242858</v>
       </c>
       <c r="Z2">
-        <v>0.5420913225911743</v>
+        <v>0.8066107490680731</v>
       </c>
       <c r="AA2">
-        <v>0.5545247121808236</v>
+        <v>0.8184610435613894</v>
       </c>
       <c r="AB2">
-        <v>0.562878259658191</v>
+        <v>0.8184610435613894</v>
       </c>
       <c r="AC2">
-        <v>0.6035103566536054</v>
+        <v>0.8184610435613894</v>
       </c>
       <c r="AD2">
-        <v>0.6294767968703788</v>
+        <v>0.8184610435613894</v>
       </c>
       <c r="AE2">
-        <v>0.6297763173570234</v>
+        <v>0.8405532625504956</v>
       </c>
       <c r="AF2">
-        <v>0.6297763173570234</v>
+        <v>0.9376062361266674</v>
       </c>
       <c r="AG2">
-        <v>0.6954308770146873</v>
+        <v>0.9842303174882068</v>
       </c>
       <c r="AH2">
-        <v>0.8895670545932999</v>
+        <v>0.9842303174882068</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2189,10 +3170,133 @@
       <c r="BK2">
         <v>1</v>
       </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:104">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2237,153 +3341,276 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.003354290820390023</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.02575483001178675</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.04526807351646346</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.05021217269127325</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.05463598536678737</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07094596617142192</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.07094665187059282</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.07107649759133143</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0819600534985981</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.12248625476788</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.1292400997619613</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.1554908884070088</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.1768530523305679</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.2274304796343951</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.2508219928444088</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.3669736129917907</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.4317331684147218</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.4387541724034268</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.4480755719624834</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.5333895983306947</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.655457837141426</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.6818629627170248</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.699900866109317</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.7097889954567795</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.7109951667347623</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.7588392210470309</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8310853309526119</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.856289434833134</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.8632752999186687</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.8792270388683379</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.9333831207246543</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0.05013781999227133</v>
+      </c>
+      <c r="BT3">
+        <v>0.06170216578682337</v>
+      </c>
+      <c r="BU3">
+        <v>0.1000743520290414</v>
+      </c>
+      <c r="BV3">
+        <v>0.1023441412692286</v>
+      </c>
+      <c r="BW3">
+        <v>0.1049888465417721</v>
+      </c>
+      <c r="BX3">
+        <v>0.1354009724981228</v>
+      </c>
+      <c r="BY3">
+        <v>0.173570797759176</v>
+      </c>
+      <c r="BZ3">
+        <v>0.1735923345032231</v>
+      </c>
+      <c r="CA3">
+        <v>0.2023117409548701</v>
+      </c>
+      <c r="CB3">
+        <v>0.2082898805486976</v>
+      </c>
+      <c r="CC3">
+        <v>0.3744027366272519</v>
+      </c>
+      <c r="CD3">
+        <v>0.3744522980984583</v>
+      </c>
+      <c r="CE3">
+        <v>0.3744703675306601</v>
+      </c>
+      <c r="CF3">
+        <v>0.3884011379329092</v>
+      </c>
+      <c r="CG3">
+        <v>0.4289305686489907</v>
+      </c>
+      <c r="CH3">
+        <v>0.4348909035198296</v>
+      </c>
+      <c r="CI3">
+        <v>0.4440965712001618</v>
+      </c>
+      <c r="CJ3">
+        <v>0.4908131872613599</v>
+      </c>
+      <c r="CK3">
+        <v>0.5035844475457648</v>
+      </c>
+      <c r="CL3">
+        <v>0.514301524165454</v>
+      </c>
+      <c r="CM3">
+        <v>0.6405910606941301</v>
+      </c>
+      <c r="CN3">
+        <v>0.6772974489843641</v>
+      </c>
+      <c r="CO3">
+        <v>0.7285728217371457</v>
+      </c>
+      <c r="CP3">
+        <v>0.7756692257606375</v>
+      </c>
+      <c r="CQ3">
+        <v>0.7757489484623584</v>
+      </c>
+      <c r="CR3">
+        <v>0.8001734410170528</v>
+      </c>
+      <c r="CS3">
+        <v>0.8223758083212286</v>
+      </c>
+      <c r="CT3">
+        <v>0.8542305832667212</v>
+      </c>
+      <c r="CU3">
+        <v>0.9240633412265439</v>
+      </c>
+      <c r="CV3">
+        <v>0.9558429144560631</v>
+      </c>
+      <c r="CW3">
+        <v>0.9595090577867937</v>
+      </c>
+      <c r="CX3">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CY3">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CZ3">
+        <v>1.000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:104">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2476,105 +3703,228 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.008554129802150366</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02798764527634176</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.02834366931765766</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03745547184543255</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0479099077650944</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.04848596186355592</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.07243737005562387</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.07455802177317274</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0759279105019081</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.07637734321505549</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.07658769480108435</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.07688937311335961</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.08283910600983178</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.09446783194714592</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.1881290382495425</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.2429456433003657</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.2453244556493271</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.2507034814100091</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.2949878850584532</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.4067000743804927</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.4949141239813349</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.5513195398639872</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.5833348243527317</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.5867393789583523</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.6196907156648597</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.6945425005899969</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.7528321215982665</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.8081046506300601</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.8589830072981162</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.9157092582552692</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.9792107856668522</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0.04373445717948465</v>
+      </c>
+      <c r="BS4">
+        <v>0.04513702565176456</v>
+      </c>
+      <c r="BT4">
+        <v>0.09145736357871176</v>
+      </c>
+      <c r="BU4">
+        <v>0.09647865140115393</v>
+      </c>
+      <c r="BV4">
+        <v>0.09679112285851006</v>
+      </c>
+      <c r="BW4">
+        <v>0.09681600653645028</v>
+      </c>
+      <c r="BX4">
+        <v>0.1491880624413784</v>
+      </c>
+      <c r="BY4">
+        <v>0.1626091606802534</v>
+      </c>
+      <c r="BZ4">
+        <v>0.1706775347922603</v>
+      </c>
+      <c r="CA4">
+        <v>0.1771067563018152</v>
+      </c>
+      <c r="CB4">
+        <v>0.2149157975500549</v>
+      </c>
+      <c r="CC4">
+        <v>0.2819410360828705</v>
+      </c>
+      <c r="CD4">
+        <v>0.2889165910755792</v>
+      </c>
+      <c r="CE4">
+        <v>0.3014770878969575</v>
+      </c>
+      <c r="CF4">
+        <v>0.3111342073802019</v>
+      </c>
+      <c r="CG4">
+        <v>0.3340242969072442</v>
+      </c>
+      <c r="CH4">
+        <v>0.3346060706190729</v>
+      </c>
+      <c r="CI4">
+        <v>0.3579024493052105</v>
+      </c>
+      <c r="CJ4">
+        <v>0.4157529559140164</v>
+      </c>
+      <c r="CK4">
+        <v>0.4447060634148956</v>
+      </c>
+      <c r="CL4">
+        <v>0.4492517929981928</v>
+      </c>
+      <c r="CM4">
+        <v>0.6012633588231306</v>
+      </c>
+      <c r="CN4">
+        <v>0.6053209210531227</v>
+      </c>
+      <c r="CO4">
+        <v>0.6547950530241295</v>
+      </c>
+      <c r="CP4">
+        <v>0.6812082088901521</v>
+      </c>
+      <c r="CQ4">
+        <v>0.6821804326648983</v>
+      </c>
+      <c r="CR4">
+        <v>0.7654309889109692</v>
+      </c>
+      <c r="CS4">
+        <v>0.8186113990055207</v>
+      </c>
+      <c r="CT4">
+        <v>0.9110333307710196</v>
+      </c>
+      <c r="CU4">
+        <v>0.9629634530425225</v>
+      </c>
+      <c r="CV4">
+        <v>0.9629634530425225</v>
+      </c>
+      <c r="CW4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CX4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CY4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9999999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:104">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2664,108 +4014,231 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.004903089403684301</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.01031352988279183</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.02202320755911382</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.09015796498501777</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.09233388326926201</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.136080442372248</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.1818319551295794</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.1831474803122796</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.2168811656512174</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.2395036252344545</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.2616186345260624</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.2624934262539634</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.2853340871494623</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.2874464153941754</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.2886641965450619</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.3067420469528137</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.3997400224465227</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.4564344365203581</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.4577499617030583</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.5222790306519024</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.6308286374695371</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.7273108659509715</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.7608861255972473</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.7679326321616864</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.7683419412238608</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.7730868934338795</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.8257436482539443</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.9065898172809859</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.948823037600131</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.9612099427955845</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.9710203778249291</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0.01178454433430599</v>
+      </c>
+      <c r="BU5">
+        <v>0.0236681998192789</v>
+      </c>
+      <c r="BV5">
+        <v>0.06796025190850313</v>
+      </c>
+      <c r="BW5">
+        <v>0.08748137650799245</v>
+      </c>
+      <c r="BX5">
+        <v>0.08887130523226855</v>
+      </c>
+      <c r="BY5">
+        <v>0.08892050189760406</v>
+      </c>
+      <c r="BZ5">
+        <v>0.144852437660464</v>
+      </c>
+      <c r="CA5">
+        <v>0.1562480334434007</v>
+      </c>
+      <c r="CB5">
+        <v>0.1802202973426532</v>
+      </c>
+      <c r="CC5">
+        <v>0.2107736514868243</v>
+      </c>
+      <c r="CD5">
+        <v>0.2560553333783093</v>
+      </c>
+      <c r="CE5">
+        <v>0.3686316358723346</v>
+      </c>
+      <c r="CF5">
+        <v>0.3687980378277861</v>
+      </c>
+      <c r="CG5">
+        <v>0.3748761308737421</v>
+      </c>
+      <c r="CH5">
+        <v>0.4101729242653385</v>
+      </c>
+      <c r="CI5">
+        <v>0.449980738123872</v>
+      </c>
+      <c r="CJ5">
+        <v>0.4508151178844704</v>
+      </c>
+      <c r="CK5">
+        <v>0.4616411287581454</v>
+      </c>
+      <c r="CL5">
+        <v>0.5104249334361314</v>
+      </c>
+      <c r="CM5">
+        <v>0.5500990406344092</v>
+      </c>
+      <c r="CN5">
+        <v>0.5813199026145491</v>
+      </c>
+      <c r="CO5">
+        <v>0.6857085983121344</v>
+      </c>
+      <c r="CP5">
+        <v>0.6857930848686647</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7364125096365575</v>
+      </c>
+      <c r="CR5">
+        <v>0.753822336175924</v>
+      </c>
+      <c r="CS5">
+        <v>0.7560802498025933</v>
+      </c>
+      <c r="CT5">
+        <v>0.7737520891645503</v>
+      </c>
+      <c r="CU5">
+        <v>0.7997706469208533</v>
+      </c>
+      <c r="CV5">
+        <v>0.8982770533489239</v>
+      </c>
+      <c r="CW5">
+        <v>0.9700402312586343</v>
+      </c>
+      <c r="CX5">
+        <v>0.9749514151488649</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:104">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2807,150 +4280,273 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004640563539574882</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.009083592071058839</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02589211041465565</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.08423479166031736</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.08721433636869395</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1135801620504912</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1375563506429714</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.1382623479593385</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.1446737701111089</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.1849253942099826</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.2242993369296233</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.2250806399276869</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.261404726484071</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.2614420226067669</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.2677690021219244</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.2989237645859789</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.3683024669140207</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.4029462600857995</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.402967408881154</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.4278038570020134</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.5326068231114931</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.6566325375649591</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.6999222101101121</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.7112855727158667</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.7120250468477575</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.715658372220082</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.7767021541067225</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8538597895892061</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.8965073748325084</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.9302965667400234</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.9633802446800849</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0.04600217361366905</v>
+      </c>
+      <c r="BV6">
+        <v>0.07515278901842248</v>
+      </c>
+      <c r="BW6">
+        <v>0.08965313989941798</v>
+      </c>
+      <c r="BX6">
+        <v>0.09792646528808788</v>
+      </c>
+      <c r="BY6">
+        <v>0.1019241832030442</v>
+      </c>
+      <c r="BZ6">
+        <v>0.1438088618323</v>
+      </c>
+      <c r="CA6">
+        <v>0.1846128119108359</v>
+      </c>
+      <c r="CB6">
+        <v>0.1849271190406809</v>
+      </c>
+      <c r="CC6">
+        <v>0.2068658469894961</v>
+      </c>
+      <c r="CD6">
+        <v>0.2200956745267332</v>
+      </c>
+      <c r="CE6">
+        <v>0.3337213607621617</v>
+      </c>
+      <c r="CF6">
+        <v>0.3465122290826191</v>
+      </c>
+      <c r="CG6">
+        <v>0.3482322696359655</v>
+      </c>
+      <c r="CH6">
+        <v>0.4097248979201756</v>
+      </c>
+      <c r="CI6">
+        <v>0.427897749205502</v>
+      </c>
+      <c r="CJ6">
+        <v>0.4287467667753714</v>
+      </c>
+      <c r="CK6">
+        <v>0.4309595430410365</v>
+      </c>
+      <c r="CL6">
+        <v>0.4786731373169525</v>
+      </c>
+      <c r="CM6">
+        <v>0.518679774430346</v>
+      </c>
+      <c r="CN6">
+        <v>0.5429328920542307</v>
+      </c>
+      <c r="CO6">
+        <v>0.6231750041204045</v>
+      </c>
+      <c r="CP6">
+        <v>0.6313487873756553</v>
+      </c>
+      <c r="CQ6">
+        <v>0.6569990821022369</v>
+      </c>
+      <c r="CR6">
+        <v>0.6896535115191723</v>
+      </c>
+      <c r="CS6">
+        <v>0.6898762216706308</v>
+      </c>
+      <c r="CT6">
+        <v>0.7345523284887135</v>
+      </c>
+      <c r="CU6">
+        <v>0.7575433632227419</v>
+      </c>
+      <c r="CV6">
+        <v>0.8829479010202712</v>
+      </c>
+      <c r="CW6">
+        <v>0.9564863638089757</v>
+      </c>
+      <c r="CX6">
+        <v>0.9574046949385143</v>
+      </c>
+      <c r="CY6">
+        <v>0.9747441250405023</v>
+      </c>
+      <c r="CZ6">
         <v>1</v>
       </c>
     </row>
@@ -2969,302 +4565,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>0.01358910471571007</v>
+        <v>0.09583568603656181</v>
       </c>
       <c r="F2">
-        <v>0.5162106482732821</v>
+        <v>0.5050458721903822</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>0.1000743520290414</v>
+      </c>
+      <c r="F3">
+        <v>0.5035844475457648</v>
+      </c>
+      <c r="G3">
         <v>16</v>
-      </c>
-      <c r="D3">
-        <v>34</v>
-      </c>
-      <c r="E3">
-        <v>0.02575483001178675</v>
-      </c>
-      <c r="F3">
-        <v>0.5333895983306947</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L3">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>0.02798764527634176</v>
+        <v>0.09145736357871176</v>
       </c>
       <c r="F4">
-        <v>0.5513195398639872</v>
+        <v>0.6012633588231306</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L4">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>0.01031352988279183</v>
+        <v>0.08748137650799245</v>
       </c>
       <c r="F5">
-        <v>0.5222790306519024</v>
+        <v>0.5104249334361314</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L5">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>0.08965313989941798</v>
+      </c>
+      <c r="F6">
+        <v>0.518679774430346</v>
+      </c>
+      <c r="G6">
         <v>16</v>
-      </c>
-      <c r="D6">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>0.02589211041465565</v>
-      </c>
-      <c r="F6">
-        <v>0.5326068231114931</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L6">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3282,222 +4863,213 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.01358910471571007</v>
+        <v>0.09583568603656181</v>
       </c>
       <c r="F2">
-        <v>0.8895670545932999</v>
+        <v>0.7539303476746182</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.02575483001178675</v>
+        <v>0.1000743520290414</v>
       </c>
       <c r="F3">
-        <v>0.7097889954567795</v>
+        <v>0.7285728217371457</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L3">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>0.02798764527634176</v>
+        <v>0.09145736357871176</v>
       </c>
       <c r="F4">
-        <v>0.7528321215982665</v>
+        <v>0.7654309889109692</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L4">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.01031352988279183</v>
+        <v>0.08748137650799245</v>
       </c>
       <c r="F5">
-        <v>0.7273108659509715</v>
+        <v>0.7364125096365575</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -3506,78 +5078,72 @@
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L5">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>0.02589211041465565</v>
+        <v>0.08965313989941798</v>
       </c>
       <c r="F6">
-        <v>0.7112855727158667</v>
+        <v>0.7345523284887135</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L6">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3595,222 +5161,213 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.01358910471571007</v>
+        <v>0.09583568603656181</v>
       </c>
       <c r="F2">
-        <v>0.8895670545932999</v>
+        <v>0.8066107490680731</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.02575483001178675</v>
+        <v>0.1000743520290414</v>
       </c>
       <c r="F3">
-        <v>0.8310853309526119</v>
+        <v>0.8001734410170528</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L3">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>0.02798764527634176</v>
+        <v>0.09145736357871176</v>
       </c>
       <c r="F4">
-        <v>0.8081046506300601</v>
+        <v>0.8186113990055207</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L4">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>0.01031352988279183</v>
+        <v>0.08748137650799245</v>
       </c>
       <c r="F5">
-        <v>0.8257436482539443</v>
+        <v>0.8982770533489239</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -3819,48 +5376,45 @@
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L5">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.02589211041465565</v>
+        <v>0.08965313989941798</v>
       </c>
       <c r="F6">
-        <v>0.8538597895892061</v>
+        <v>0.8829479010202712</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -3869,28 +5423,25 @@
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L6">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3908,222 +5459,213 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>0.01358910471571007</v>
+        <v>0.09583568603656181</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9376062361266674</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>0.02575483001178675</v>
+        <v>0.1000743520290414</v>
       </c>
       <c r="F3">
-        <v>0.9333831207246543</v>
+        <v>0.9240633412265439</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L3">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.02798764527634176</v>
+        <v>0.09145736357871176</v>
       </c>
       <c r="F4">
-        <v>0.9157092582552692</v>
+        <v>0.9110333307710196</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L4">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.01031352988279183</v>
+        <v>0.08748137650799245</v>
       </c>
       <c r="F5">
-        <v>0.9065898172809859</v>
+        <v>0.9700402312586343</v>
       </c>
       <c r="G5">
         <v>26</v>
@@ -4132,78 +5674,72 @@
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L5">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.02589211041465565</v>
+        <v>0.08965313989941798</v>
       </c>
       <c r="F6">
-        <v>0.9302965667400234</v>
+        <v>0.9564863638089757</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L6">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
